--- a/resources/experiment 2/metrics/R2/average time/Ceguera.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Ceguera.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8843194412488672</v>
+        <v>0.9835760988432076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8843194412488672</v>
+        <v>0.9817794427116402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8843194412488672</v>
+        <v>0.9527642615467489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9874368564929159</v>
+        <v>0.9812114986549524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9874368564929159</v>
+        <v>0.9796248748224839</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9874368564929159</v>
+        <v>0.877122300611426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.689670424136115</v>
+        <v>0.9876477421214016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.689670424136115</v>
+        <v>0.9876132006717123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.689670424136115</v>
+        <v>0.9854642593305272</v>
       </c>
     </row>
   </sheetData>
